--- a/maps/xtehr2zibs2024/SubstanceUse-AlcoholUse-full.xlsx
+++ b/maps/xtehr2zibs2024/SubstanceUse-AlcoholUse-full.xlsx
@@ -1091,51 +1091,15 @@
           <t>EHDSSubstanceUse.period</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>AlcoholUse.ObservationOfUse.StartDate</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>StartDate</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>AlcoholUse.ObservationOfUse.StartDate</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NL: StartDatum</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>TS</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0..1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>NL-CM:7.3.4</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>The date on which the patient started using alcohol.</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -1311,15 +1275,51 @@
           <t>EHDSSubstanceUse.frequencyAndQuantity.period</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AlcoholUse.ObservationOfUse.StartDate</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>StartDate</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AlcoholUse.ObservationOfUse.StartDate</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NL: StartDatum</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0..1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NL-CM:7.3.4</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>The date on which the patient started using alcohol.</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
